--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>91963.19787316603</v>
+        <v>105979.5795975501</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17296548.24023119</v>
+        <v>16628357.41382743</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8461213.398248997</v>
+        <v>8512473.247124536</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308.3086748172354</v>
+        <v>310.1152328386781</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>120.6512850821162</v>
+        <v>167.5102121087829</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -874,16 +874,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +899,10 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>325.5800738246913</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -911,10 +911,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>161.0734612100937</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>22.5691945745387</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1111,16 +1111,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>65.84072001701249</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>330.169834715921</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>30.55202854087245</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>152.355512532834</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>345.3033215449931</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1430,13 +1430,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>155.4148278271225</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>18.05677735225765</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>255.4569894958352</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776706</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225828</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>430.3775968169824</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1856,13 +1856,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629692</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>50.30825486907159</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2093,13 +2093,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>396.2107629026514</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.64119670415002</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2248,13 +2248,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513525</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888118</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>18.05677735225771</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>76.02431517303481</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3080,7 +3080,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3484266092796</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.0243759141564</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.176133815753</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9712315838374</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.40273359886997</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561524</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5781590863804</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.2363335358519</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>112.0152145377534</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.2360492602944</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6733315691425</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948853</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4878110526658</v>
+        <v>50.3082548690714</v>
       </c>
       <c r="C43" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>26.24351759540748</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.2363335358519</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T46" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>137.9007029499954</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>1378.371828008275</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>1344.269759232102</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>908.3599744065468</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>474.5852295648421</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.7177999740498</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.7177999740498</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.7177999740498</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.7177999740498</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>481.9724874269677</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1060.105262105834</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1060.105262105834</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1060.105262105834</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1060.105262105834</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1060.105262105834</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1620.237147990838</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2166.735933949433</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.88999870249</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.88999870249</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2115.822771575528</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2115.822771575528</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2115.822771575528</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1710.967316986562</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>1695.865257606276</v>
       </c>
       <c r="Y2" t="n">
-        <v>464.8993883704147</v>
+        <v>1691.619537946334</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>552.8895449653426</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>446.4330838019849</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>351.3427949485381</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>257.2223802754918</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>173.8385418916534</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>88.45345215783732</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>46.7177999740498</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>72.78147313450739</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>397.3397981007197</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>975.4725727795859</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1592.784783358519</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1709.957561452859</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1646.502123901242</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1516.323480231843</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1339.986933231812</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1140.869415293811</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>955.546661027005</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>800.679225265885</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>674.1934460451057</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>726.6741060804052</v>
+        <v>694.2619130522437</v>
       </c>
       <c r="C4" t="n">
-        <v>726.6741060804052</v>
+        <v>521.7002015354686</v>
       </c>
       <c r="D4" t="n">
-        <v>726.6741060804052</v>
+        <v>355.8222087369913</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>186.6199742836753</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>186.6199742836753</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>186.6199742836753</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>46.7177999740498</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>46.7177999740498</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>80.56852853551541</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>80.56852853551541</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>498.7784103034764</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>958.2622774843895</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1400.521080642034</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1820.190329867816</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2167.697223838157</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.88999870249</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2314.472177407862</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2155.230808705858</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1909.351362284313</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1630.918361537419</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>1630.918361537419</v>
       </c>
       <c r="W4" t="n">
-        <v>726.6741060804052</v>
+        <v>1358.89195712371</v>
       </c>
       <c r="X4" t="n">
-        <v>726.6741060804052</v>
+        <v>1113.500202457123</v>
       </c>
       <c r="Y4" t="n">
-        <v>726.6741060804052</v>
+        <v>886.0805317712309</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>2076.000019869234</v>
       </c>
       <c r="C5" t="n">
-        <v>1620.659365270951</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D5" t="n">
-        <v>1291.790603831868</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E5" t="n">
-        <v>863.2089295691367</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>2102.50490597368</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>2098.259186313737</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>947.1238364150125</v>
+        <v>900.7186013536157</v>
       </c>
       <c r="C7" t="n">
-        <v>774.5621248982375</v>
+        <v>728.1568898368406</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>728.1568898368406</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>558.3988860875779</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>381.6918320493342</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>216.1005570751618</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>76.19838276553634</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>269.215608100497</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>2124.33055796836</v>
       </c>
       <c r="V7" t="n">
-        <v>947.1238364150125</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W7" t="n">
-        <v>947.1238364150125</v>
+        <v>1565.348645425082</v>
       </c>
       <c r="X7" t="n">
-        <v>947.1238364150125</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y7" t="n">
-        <v>947.1238364150125</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1343.515716940192</v>
+        <v>1385.472033935714</v>
       </c>
       <c r="C8" t="n">
-        <v>914.93404267746</v>
+        <v>947.3295611191371</v>
       </c>
       <c r="D8" t="n">
-        <v>486.3523684147282</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1107.976466382457</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1107.976466382457</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1107.976466382457</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2639.200191541658</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>2220.057728120968</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>1811.771604420622</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>89.90148899448771</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>705.2562847857771</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>433.2298803720686</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>187.8381257054811</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.94366860160834</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2128.233838876105</v>
+        <v>2506.383803920271</v>
       </c>
       <c r="C11" t="n">
-        <v>1779.442604992273</v>
+        <v>2068.241331103694</v>
       </c>
       <c r="D11" t="n">
-        <v>1343.532820166717</v>
+        <v>1632.331546278139</v>
       </c>
       <c r="E11" t="n">
-        <v>909.7580753250126</v>
+        <v>1198.556801436434</v>
       </c>
       <c r="F11" t="n">
-        <v>481.8906457342202</v>
+        <v>770.6893718456417</v>
       </c>
       <c r="G11" t="n">
-        <v>80.49281435748409</v>
+        <v>369.2915404689056</v>
       </c>
       <c r="H11" t="n">
-        <v>80.49281435748409</v>
+        <v>80.16138591212187</v>
       </c>
       <c r="I11" t="n">
-        <v>80.0760249846241</v>
+        <v>80.16138591212187</v>
       </c>
       <c r="J11" t="n">
-        <v>515.3307124375419</v>
+        <v>515.4160733650398</v>
       </c>
       <c r="K11" t="n">
-        <v>515.3307124375419</v>
+        <v>1349.766365323218</v>
       </c>
       <c r="L11" t="n">
-        <v>515.3307124375419</v>
+        <v>1349.766365323218</v>
       </c>
       <c r="M11" t="n">
-        <v>515.3307124375419</v>
+        <v>1349.766365323218</v>
       </c>
       <c r="N11" t="n">
-        <v>1479.658857115851</v>
+        <v>1483.926903490739</v>
       </c>
       <c r="O11" t="n">
-        <v>2459.838523686157</v>
+        <v>2464.106570061045</v>
       </c>
       <c r="P11" t="n">
-        <v>3288.148398519554</v>
+        <v>3292.416444894442</v>
       </c>
       <c r="Q11" t="n">
-        <v>3834.647184478148</v>
+        <v>3838.915230853037</v>
       </c>
       <c r="R11" t="n">
-        <v>4003.801249231205</v>
+        <v>4008.069295606093</v>
       </c>
       <c r="S11" t="n">
-        <v>4003.801249231205</v>
+        <v>3924.41742178993</v>
       </c>
       <c r="T11" t="n">
-        <v>4003.801249231205</v>
+        <v>3704.350194662969</v>
       </c>
       <c r="U11" t="n">
-        <v>3744.578946548222</v>
+        <v>3445.127891979986</v>
       </c>
       <c r="V11" t="n">
-        <v>3381.961996482049</v>
+        <v>3082.510941913813</v>
       </c>
       <c r="W11" t="n">
-        <v>3381.961996482049</v>
+        <v>2925.526267340961</v>
       </c>
       <c r="X11" t="n">
-        <v>2962.819533061359</v>
+        <v>2506.383803920271</v>
       </c>
       <c r="Y11" t="n">
-        <v>2554.533409361012</v>
+        <v>2506.383803920271</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.2477699759169</v>
+        <v>586.3331309034147</v>
       </c>
       <c r="C12" t="n">
-        <v>479.7913088125592</v>
+        <v>479.876669740057</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7010199591124</v>
+        <v>384.7863808866102</v>
       </c>
       <c r="E12" t="n">
-        <v>290.5806052860661</v>
+        <v>290.6659662135639</v>
       </c>
       <c r="F12" t="n">
-        <v>207.1967669022278</v>
+        <v>207.2821278297255</v>
       </c>
       <c r="G12" t="n">
-        <v>121.8116771684116</v>
+        <v>121.8970380959094</v>
       </c>
       <c r="H12" t="n">
-        <v>80.0760249846241</v>
+        <v>80.16138591212187</v>
       </c>
       <c r="I12" t="n">
-        <v>80.11222470042794</v>
+        <v>106.2250590725795</v>
       </c>
       <c r="J12" t="n">
-        <v>404.6705496666403</v>
+        <v>430.7833840387918</v>
       </c>
       <c r="K12" t="n">
-        <v>1085.404069737018</v>
+        <v>430.7833840387918</v>
       </c>
       <c r="L12" t="n">
-        <v>1085.404069737018</v>
+        <v>430.7833840387918</v>
       </c>
       <c r="M12" t="n">
-        <v>1085.404069737018</v>
+        <v>430.7833840387918</v>
       </c>
       <c r="N12" t="n">
-        <v>1085.404069737018</v>
+        <v>430.7833840387918</v>
       </c>
       <c r="O12" t="n">
-        <v>1085.404069737018</v>
+        <v>1085.489430664516</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.404069737018</v>
+        <v>1085.489430664516</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.143008369093</v>
+        <v>1626.228369296591</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.315786463433</v>
+        <v>1743.401147390931</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.860348911816</v>
+        <v>1679.945709839314</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.681705242418</v>
+        <v>1549.767066169916</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.345158242386</v>
+        <v>1373.430519169884</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.227640304385</v>
+        <v>1174.313001231883</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9048860375792</v>
+        <v>988.9902469650772</v>
       </c>
       <c r="X12" t="n">
-        <v>834.0374502764593</v>
+        <v>834.1228112039571</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.55167105568</v>
+        <v>707.6370319831778</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.8112311042399</v>
+        <v>930.6574229890529</v>
       </c>
       <c r="C13" t="n">
-        <v>776.2495195874649</v>
+        <v>758.0957114722778</v>
       </c>
       <c r="D13" t="n">
-        <v>610.3715267889876</v>
+        <v>592.2177186738006</v>
       </c>
       <c r="E13" t="n">
-        <v>440.6135230397248</v>
+        <v>422.4597149245378</v>
       </c>
       <c r="F13" t="n">
-        <v>263.906469001481</v>
+        <v>245.7526608862941</v>
       </c>
       <c r="G13" t="n">
-        <v>98.31519402730859</v>
+        <v>80.16138591212166</v>
       </c>
       <c r="H13" t="n">
-        <v>98.31519402730859</v>
+        <v>80.16138591212187</v>
       </c>
       <c r="I13" t="n">
-        <v>80.0760249846241</v>
+        <v>80.16138591212187</v>
       </c>
       <c r="J13" t="n">
-        <v>166.6557101493139</v>
+        <v>166.7410710768117</v>
       </c>
       <c r="K13" t="n">
-        <v>441.4141647204495</v>
+        <v>441.4995256479473</v>
       </c>
       <c r="L13" t="n">
-        <v>859.6240464884106</v>
+        <v>859.7094074159083</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.107913669324</v>
+        <v>1319.193274596821</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.366716826968</v>
+        <v>1761.452077754466</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.03596605275</v>
+        <v>2181.121326980247</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.542860023092</v>
+        <v>2528.628220950589</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.735634887424</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="R13" t="n">
-        <v>2696.735634887424</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="S13" t="n">
-        <v>2696.735634887424</v>
+        <v>2678.581826772237</v>
       </c>
       <c r="T13" t="n">
-        <v>2450.856188465879</v>
+        <v>2432.702380350692</v>
       </c>
       <c r="U13" t="n">
-        <v>2172.423187718984</v>
+        <v>2154.269379603797</v>
       </c>
       <c r="V13" t="n">
-        <v>1885.467679589415</v>
+        <v>1867.313871474228</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.441275175706</v>
+        <v>1595.287467060519</v>
       </c>
       <c r="X13" t="n">
-        <v>1368.049520509119</v>
+        <v>1349.895712393932</v>
       </c>
       <c r="Y13" t="n">
-        <v>1140.629849823227</v>
+        <v>1122.47604170804</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.450569933445</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.308097116868</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.398312291312</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1220.623567449607</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>792.756137858815</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>391.3583064820789</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>102.2281519252952</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2281519252952</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2281519252952</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>936.5784438834731</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2011.638410136332</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M14" t="n">
-        <v>3168.686245346883</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>3168.686245346883</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3736.598935472769</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4564.908810306165</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5111.407596264759</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5111.407596264759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5027.755722448596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4807.688495321635</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4549.651132194528</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.034182128355</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.178727539388</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.036264118699</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2954.750140418352</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>608.399896916588</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>501.9434357532303</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>406.8531468997836</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>312.7327322267373</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>229.3488938428989</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9638041090827</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2281519252952</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>128.2918250857528</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>452.8501500519652</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>452.8501500519652</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>452.8501500519652</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>452.8501500519652</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>452.8501500519652</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>452.8501500519652</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1107.556196677689</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1648.295135309764</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1765.467913404104</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1702.012475852487</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1571.833832183089</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1395.497285183057</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1196.379767245056</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1011.05701297825</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>856.1895772171304</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>729.7037979963511</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.724189002226</v>
+        <v>811.7546776883921</v>
       </c>
       <c r="C16" t="n">
-        <v>780.1624774854514</v>
+        <v>639.1929661716171</v>
       </c>
       <c r="D16" t="n">
-        <v>614.2844846869741</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>444.5264809377114</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>267.8194268994675</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2281519252952</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2281519252952</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2281519252959</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>188.8078370899857</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.5662916611213</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>881.7761734290824</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1341.260040609995</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.51884376764</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.188092993421</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.694986963763</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.887761828095</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.887761828095</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2700.64859278541</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2454.769146363865</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2176.33614561697</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1889.380637487401</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W16" t="n">
-        <v>1617.354233073693</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X16" t="n">
-        <v>1371.962478407105</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.542807721213</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2527.265630377568</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2089.123157560991</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.398312291312</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1220.623567449607</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>792.756137858815</v>
+        <v>793.20561557716</v>
       </c>
       <c r="G17" t="n">
-        <v>391.3583064820789</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.2281519252952</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2281519252952</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.482839378213</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.833131336391</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.89309758925</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2587.265204149406</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2587.265204149406</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3567.444870719712</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4395.754745553108</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4942.253531511703</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5111.407596264759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5027.755722448596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4807.688495321635</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4548.466192638652</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4185.849242572478</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3780.993787983512</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3361.851324562822</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2953.565200862476</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>608.399896916588</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>501.9434357532303</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>406.8531468997836</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>312.7327322267373</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>229.3488938428989</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9638041090827</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2281519252952</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.2918250857528</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8501500519652</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8501500519652</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8501500519652</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8501500519652</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8501500519652</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8501500519652</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.556196677689</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.295135309764</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1765.467913404104</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1702.012475852487</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1571.833832183089</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1395.497285183057</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1196.379767245056</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1011.05701297825</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>856.1895772171304</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>729.7037979963511</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1003.540608061895</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>830.9788965451196</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>665.1009037466424</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E19" t="n">
-        <v>495.3428999973796</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F19" t="n">
-        <v>318.6358459591358</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>153.0445709849635</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2281519252952</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2281519252952</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>188.807837089985</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5662916611207</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.7761734290815</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.260040609994</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.518843767639</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.18809299342</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.694986963762</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.887761828094</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.887761828094</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.646393126091</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.766946704547</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.333945957652</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.378437828082</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.352033414374</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.960278747786</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.540608061895</v>
+        <v>1373.137619601649</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2527.265630377568</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2089.123157560991</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1653.213372735436</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1219.438627893731</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>791.5711983029389</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.3583064820789</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.2281519252952</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2281519252952</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2281519252952</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.5784438834731</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.638410136332</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.638410136332</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3137.369393572779</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>4117.549060143086</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4945.858934976482</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5111.40759626476</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5111.40759626476</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5027.755722448597</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4807.688495321636</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4548.466192638653</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4185.849242572479</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3780.993787983512</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3361.851324562823</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2953.565200862476</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.399896916588</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9434357532303</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>406.8531468997836</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7327322267373</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3488938428989</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9638041090827</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2281519252952</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.2918250857528</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8501500519652</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.556196677689</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.556196677689</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.556196677689</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.556196677689</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.556196677689</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.556196677689</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.295135309764</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.467913404104</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>1702.012475852487</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>1571.833832183089</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.497285183057</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>1196.379767245056</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>1011.05701297825</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>856.1895772171304</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.7037979963511</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>920.0646517950769</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0646517950769</v>
+        <v>639.1929661716165</v>
       </c>
       <c r="D22" t="n">
-        <v>754.1866589965996</v>
+        <v>473.3149733731392</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4286552473368</v>
+        <v>303.5569696238765</v>
       </c>
       <c r="F22" t="n">
-        <v>407.721601209093</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1303262349207</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2281519252952</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2281519252952</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.807837089985</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5662916611207</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.7761734290817</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.260040609995</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.51884376764</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.188092993421</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.694986963763</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.887761828095</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.887761828095</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.646393126091</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.766946704547</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.333945957652</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.378437828083</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.352033414374</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.960278747787</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.540608061895</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5975,28 +5975,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>388.1086717343205</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>388.1086717343205</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9960463903956</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736205</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>632.5563420751432</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7983383258805</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>286.0912842876367</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>120.5000093134642</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>120.5000093134642</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
         <v>881.8088617745661</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752035</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.60800300514</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461862</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795275</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109383</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6224,19 +6224,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>211.240503094076</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.300469346935</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2443.348304557486</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
         <v>3569.079287993933</v>
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,7 +6406,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
         <v>2700.681281130895</v>
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.7810588588588</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>754.2193473420838</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420838</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,25 +6707,25 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
         <v>4809.322912595856</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324586</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>462.7983383258797</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6856,13 +6856,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
         <v>1341.292728955479</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771605</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004244</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436407</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707807</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236986</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681877</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934736</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423681</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423681</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993987</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.389162827383</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785978</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013539034</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722871</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.32291259591</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912926</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846753</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257786</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837097</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620735</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987158</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245269</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722228</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883844</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545682</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707807</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312383</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974506</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023174</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023174</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023174</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023174</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023174</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023174</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.32782365525</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.50060174959</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197973</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528574</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528543</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590542</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323736</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626159</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418367</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477119</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309368</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324596</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831969</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244953</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707807</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707807</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707807</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>188.8405254354705</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066061</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745673</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113125</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2203.220781338906</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309248</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130896</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.801834709351</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962456</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832887</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419178</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.995166752591</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066699</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.854933458241</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.636254561829</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.278299092984</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>791.8276588750514</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2582.520192247199</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>2582.520192247199</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3562.699858817505</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4391.009733650902</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4937.508519609496</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5023.427499919249</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.777062165148</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.971548855025</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.737714570289</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7582466617394</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1969248477087</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.5453418998821</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>778.4004197559671</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>612.93921633035</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>443.5980019539472</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>267.3077372885634</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.2883819517566</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>882.9067589840578</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2563.236244375628</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2450.089563024362</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2172.073351650327</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1885.534632893618</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.925017852769</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.950052559041</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.947171246009</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2525.854933458241</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.129250014525</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.636254561829</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.278299092984</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>791.8276588750517</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.798197351206</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M41" t="n">
-        <v>2582.520192247199</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N41" t="n">
-        <v>2582.520192247199</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3562.699858817505</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4391.009733650902</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4937.508519609496</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5023.427499919249</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4803.777062165148</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4544.971548855025</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3359.607048897776</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2951.737714570289</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>406.7582466617394</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>128.1969248477087</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.461296439645</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.461296439645</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.461296439645</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.461296439645</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.461296439645</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>977.0539455316074</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>804.9090233876923</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>639.447819962075</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>470.1066055856722</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>293.8163409202884</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>128.6418553189761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2722.060823704771</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2476.598166656087</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2198.581955282052</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1912.043236525342</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1640.433621484494</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1395.458656190766</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y43" t="n">
-        <v>1168.455774877734</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2088.129250014523</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>791.8276588750507</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>390.8466168711747</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1371.738231098347</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1456.789208810751</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>2582.520192247198</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3562.699858817504</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4391.009733650901</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4937.508519609495</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.971548855024</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4182.77138816171</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3359.607048897774</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>452.755249813921</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.5453418998824</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>778.4004197559673</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>612.93921633035</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>443.5980019539472</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>267.3077372885634</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>189.1214321162808</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>464.2883819517564</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>882.9067589840575</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2563.236244375627</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2317.773587326943</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2039.757375952908</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1753.218657196199</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.925017852769</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1368.950052559041</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1141.947171246009</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>583.9724996756224</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>565.7897837222265</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>583.9724996756224</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>77.34673934026011</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>34.19265511259152</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -8143,19 +8143,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,7 +8690,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>974.0688330083932</v>
+        <v>135.5156951187082</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03656536949884526</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>573.6491819453386</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>141.7900066264197</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9419,10 +9419,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>167.2208699881603</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>288.735183296506</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>110.0804674982791</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9954,7 +9954,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10355,7 +10355,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352979</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10829,7 +10829,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>137.0929241373665</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11063,13 +11063,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>137.0929241373665</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,13 +11300,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>85.91007849737798</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>88.45772654341783</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>245.3920722159545</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23434,7 +23434,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>69.71657238081376</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>-1.104494779778828e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.173090160318013</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.173090160317486</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-4.387512129155835e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>88.19489769745763</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23981,13 +23981,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.173090160317394</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>107.2592358276472</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>69.7165723808137</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>113.8761173587624</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.36072825394002</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.79102160255045</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
-        <v>130.9928159404445</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>111.8470134919904</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.2363335358519</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>130.9928159404446</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>705837.6396285598</v>
+        <v>718937.9629617037</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>705837.6396285598</v>
+        <v>725792.0429208276</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>705837.6396285598</v>
+        <v>725792.0429208276</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>630491.9505834122</v>
+        <v>630962.9866667493</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>752731.1461684738</v>
+        <v>752911.526005937</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>752731.1461684738</v>
+        <v>752911.526005937</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>752731.1461684739</v>
+        <v>752911.5260059369</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>752911.5260059368</v>
+        <v>752911.5260059369</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>752911.526005937</v>
+        <v>752911.5260059368</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>752911.5260059378</v>
+        <v>752911.5260059369</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>753100.2058063052</v>
+        <v>752911.5260059369</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>753100.2058063052</v>
+        <v>752911.526005937</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>753100.2058063052</v>
+        <v>752911.526005937</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>281477.3429424644</v>
+        <v>281477.3429424645</v>
       </c>
       <c r="C2" t="n">
         <v>281477.3429424645</v>
@@ -26320,16 +26320,16 @@
         <v>281477.3429424645</v>
       </c>
       <c r="E2" t="n">
-        <v>231626.4442435926</v>
+        <v>231799.4907241905</v>
       </c>
       <c r="F2" t="n">
-        <v>276533.9647826974</v>
+        <v>276600.23167211</v>
       </c>
       <c r="G2" t="n">
-        <v>276533.9647826973</v>
+        <v>276600.23167211</v>
       </c>
       <c r="H2" t="n">
-        <v>276533.9647826974</v>
+        <v>276600.2316721099</v>
       </c>
       <c r="I2" t="n">
         <v>276600.2316721099</v>
@@ -26347,13 +26347,13 @@
         <v>276600.2316721099</v>
       </c>
       <c r="N2" t="n">
-        <v>276724.1807217214</v>
+        <v>276600.2316721099</v>
       </c>
       <c r="O2" t="n">
-        <v>276724.1807217218</v>
+        <v>276600.2316721099</v>
       </c>
       <c r="P2" t="n">
-        <v>276724.1807217219</v>
+        <v>276600.2316721099</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>195702.6160087936</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>26990.19963889397</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>172176.333801601</v>
+        <v>99874.97317730833</v>
       </c>
       <c r="F3" t="n">
-        <v>79339.50404753405</v>
+        <v>79150.85324460967</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>108.6564689944735</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>152792.9007051286</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>21501.21939773533</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>143704.5967509165</v>
+        <v>83359.26563805084</v>
       </c>
       <c r="N3" t="n">
-        <v>67760.14851079992</v>
+        <v>67659.41322128705</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.861628258540615e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218225.2660325691</v>
+        <v>194781.6603085977</v>
       </c>
       <c r="C4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="D4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
-        <v>90705.47420347566</v>
+        <v>90773.2396226321</v>
       </c>
       <c r="F4" t="n">
-        <v>108291.3675547462</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="G4" t="n">
-        <v>108291.3675547462</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="H4" t="n">
-        <v>108291.3675547462</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="I4" t="n">
         <v>108317.3178284629</v>
@@ -26448,16 +26448,16 @@
         <v>108317.3178284629</v>
       </c>
       <c r="M4" t="n">
-        <v>108317.3178284638</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="N4" t="n">
-        <v>108633.0020411372</v>
+        <v>108317.317828463</v>
       </c>
       <c r="O4" t="n">
-        <v>108633.0020411372</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="P4" t="n">
-        <v>108633.0020411372</v>
+        <v>108317.3178284629</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>69133.12798027784</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60857.77898831431</v>
+        <v>60922.65329321261</v>
       </c>
       <c r="F5" t="n">
-        <v>77693.39546322434</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77693.39546322434</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77693.39546322435</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579332</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77655.9599574399</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77655.9599574399</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-138364.011887037</v>
+        <v>-178140.0613552046</v>
       </c>
       <c r="C6" t="n">
-        <v>3827.288772673113</v>
+        <v>-2241.363531514813</v>
       </c>
       <c r="D6" t="n">
-        <v>3827.288772673004</v>
+        <v>24748.83610737904</v>
       </c>
       <c r="E6" t="n">
-        <v>-92113.14274979837</v>
+        <v>-20007.9365700019</v>
       </c>
       <c r="F6" t="n">
-        <v>11209.69771719283</v>
+        <v>11390.59765386223</v>
       </c>
       <c r="G6" t="n">
-        <v>90549.20176472684</v>
+        <v>90541.4508984719</v>
       </c>
       <c r="H6" t="n">
-        <v>90549.20176472687</v>
+        <v>90541.45089847178</v>
       </c>
       <c r="I6" t="n">
-        <v>90456.01876886007</v>
+        <v>90541.45089847178</v>
       </c>
       <c r="J6" t="n">
-        <v>-20449.79010713575</v>
+        <v>-62251.44980665678</v>
       </c>
       <c r="K6" t="n">
-        <v>90564.67523785448</v>
+        <v>69040.23150073647</v>
       </c>
       <c r="L6" t="n">
-        <v>90564.67523785451</v>
+        <v>90541.45089847178</v>
       </c>
       <c r="M6" t="n">
-        <v>-53139.92151306376</v>
+        <v>7182.185260420952</v>
       </c>
       <c r="N6" t="n">
-        <v>22675.07021234435</v>
+        <v>22882.03767718472</v>
       </c>
       <c r="O6" t="n">
-        <v>90435.21872314464</v>
+        <v>90541.45089847196</v>
       </c>
       <c r="P6" t="n">
-        <v>90435.21872314482</v>
+        <v>90541.45089847172</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756224</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1000.950312307801</v>
+        <v>1002.017323901523</v>
       </c>
       <c r="F4" t="n">
-        <v>1277.85189906619</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1277.85189906619</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
-        <v>1277.85189906619</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384759</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756224</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>83.54270693223452</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>576.654454787697</v>
+        <v>334.5021172936664</v>
       </c>
       <c r="F4" t="n">
-        <v>276.9015867583886</v>
+        <v>276.243179483222</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4086043185550352</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>583.9724996756224</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.54270693223452</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>576.6544547877102</v>
+        <v>334.5021172936664</v>
       </c>
       <c r="N4" t="n">
-        <v>275.3067294642682</v>
+        <v>276.2431794832218</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756224</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.54270693223452</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>576.654454787697</v>
+        <v>334.5021172936664</v>
       </c>
       <c r="N4" t="n">
-        <v>276.9015867583886</v>
+        <v>276.243179483222</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>113.7278999628232</v>
+        <v>111.9213419413805</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27430,7 +27430,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>47.40913862965392</v>
+        <v>0.5502116029872184</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,10 +27619,10 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>105.9706131526086</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>253.8775775763887</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>65.20415515853271</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>218.2452330312614</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>91.86674006413773</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>370.2548715022045</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>72.78996144619879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4126214791313848</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4126214791313848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>583.9724996756224</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>565.7897837222265</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>583.9724996756224</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>77.34673934026011</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>34.19265511259152</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34863,19 +34863,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,13 +35419,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>974.0688330083932</v>
+        <v>135.5156951187082</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03656536949884526</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35586,7 +35586,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -35659,7 +35659,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>573.6491819453386</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35884,13 +35884,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>141.7900066264197</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36045,7 +36045,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080413</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36139,10 +36139,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>167.2208699881603</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36288,7 +36288,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512943</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>288.735183296506</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908054</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821539</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>110.0804674982791</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
@@ -36674,7 +36674,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36765,13 +36765,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908053</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37233,7 +37233,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -37306,13 +37306,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352979</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,10 +37476,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821539</v>
@@ -37549,7 +37549,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>137.0929241373665</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.86684891821206</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1386852747319</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3209540304256</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,13 +37783,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>137.0929241373665</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.86684891821209</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,13 +38020,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>85.91007849737798</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.86684891821187</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.9464139752279</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.3209540304256</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
